--- a/document/詳細設計/テーブル仕様書.xlsx
+++ b/document/詳細設計/テーブル仕様書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshiki_freestylu\Desktop\研修\疑似開発\関数定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3B00DE-2874-4622-ACE2-7348448BF6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B94D1D-54E4-43A3-B39C-07506E7D9F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2964" yWindow="2964" windowWidth="17280" windowHeight="8880" xr2:uid="{D29BEC0E-99FC-4769-9715-65E959627793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D29BEC0E-99FC-4769-9715-65E959627793}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="66">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -389,6 +389,53 @@
   </si>
   <si>
     <t>List&lt;Integer&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>takeQuizFragmentから来たかを判定</t>
+    <rPh sb="18" eb="19">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fromTakeQuizFragment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resultFragmentから来たかを判定</t>
+    <rPh sb="16" eb="17">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fromResultFragment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解説表示した後の戻るフラグメントを決めるのに使います</t>
+    <rPh sb="0" eb="4">
+      <t>カイセツヒョウジ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -790,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91BC9DD-3BA6-4F2A-8837-29B2B7C0FDFC}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1093,7 +1140,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1110,7 +1157,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1127,7 +1174,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1144,7 +1191,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1161,7 +1208,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1176,6 +1223,46 @@
       </c>
       <c r="E21" s="1" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
